--- a/documents/DefectsReport.xlsx
+++ b/documents/DefectsReport.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Defects" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -102,9 +103,6 @@
   </si>
   <si>
     <t>Submitted by</t>
-  </si>
-  <si>
-    <t>(This defect is for an assumption non-functional test case (U003))</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -122,6 +120,88 @@
     <t>1. Open your browswer.
 2. Navigate to https://openweathermap.org
 3. Input CityName as an empty string into Search City search field.</t>
+  </si>
+  <si>
+    <t>DE002</t>
+  </si>
+  <si>
+    <t>Search City: User should not be able to search weather with special characters due to security reasons</t>
+  </si>
+  <si>
+    <t>1. Open your browswer.
+2. Navigate to https://openweathermap.org
+3. Input CityName into Search City textfield.</t>
+  </si>
+  <si>
+    <t>CityName=$#@!%^&amp;*()</t>
+  </si>
+  <si>
+    <t>- Search City search field should filter out and remove the special characters from user's input.</t>
+  </si>
+  <si>
+    <t>- Special characters have not been filtered out from the Search City search field.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(This defect is for an assumption non-functional test case (U003))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This defect has low business and user experience impact, it does not block the feature. Technical wise, should not be a big issue to fix this one. Therefore, it has Low in priority and Trivial in severity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(This defect is for an assumption non-functional test case (U004))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This defect has low business and user experience impact, it does not block the feature. Anyway, there's a hidden risk with it where hackers can abuse it to do code injection into the system. Technical wise, should not be a big issue to fix this one. Therefore, it has Normal in priority and Minor in severity.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -131,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +244,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -179,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,12 +289,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -233,27 +357,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -567,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,172 +737,394 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>44304.92083333333</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44304.938888888886</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7" t="s">
+    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="26">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -759,25 +1134,80 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[TestCases.xlsx]Data!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B7 B23 E15 E31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[TestCases.xlsx]Data!#REF!</xm:f>
+            <xm:f>Data!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E13</xm:sqref>
+          <xm:sqref>B11:E11 B27:E27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12:E12 B28:E28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>